--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3276.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3276.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9208637760770486</v>
+        <v>1.66539192199707</v>
       </c>
       <c r="B1">
-        <v>1.34434645222853</v>
+        <v>3.821148633956909</v>
       </c>
       <c r="C1">
-        <v>2.685862212968215</v>
+        <v>2.069429874420166</v>
       </c>
       <c r="D1">
-        <v>5.090010007823035</v>
+        <v>1.368826389312744</v>
       </c>
       <c r="E1">
-        <v>1.687057843350048</v>
+        <v>1.128280401229858</v>
       </c>
     </row>
   </sheetData>
